--- a/reports/Impacted_DataQueries.xlsx
+++ b/reports/Impacted_DataQueries.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>Query Name</t>
   </si>
@@ -26,54 +26,10 @@
     <t>Updated Query</t>
   </si>
   <si>
-    <t>Pre-Order Data Query 1</t>
-  </si>
-  <si>
-    <t>Pre-Order Data Query Description 1</t>
-  </si>
-  <si>
-    <t>SELECT
-  acc.AccountNumber,
-  acc.Name,
-  acc.Status AS AccountStatus,
-  ame.Id AS AmendmentId,
-  ame.Name AS AmendmentName,
-  ame.Status AS AmendmentStatus
-FROM 
-  Account acc
-JOIN 
-  Amendment ame
-ON 
-  acc.Id = ame.AccountId
-WHERE 
-  acc.Status = 'Active'
-  AND ame.Status = 'Completed'</t>
-  </si>
-  <si>
-    <t>SELECT
-  acc.AccountNumber,
-  acc.Name,
-  acc.Status AS AccountStatus,
-  ord.Id AS OrdersId,
-  ord.OrderNumber AS OrdersOrdernumber,
-  ord.Status AS OrdersStatus
-FROM 
-  Account acc
-JOIN Orders ord
-ON 
-  acc.Id = ord.accountid
-WHERE 
-  acc.Status = 'Active'
-  AND ord.Status = 'Completed'</t>
-  </si>
-  <si>
-    <t>Pre-Order Data Query 2</t>
-  </si>
-  <si>
-    <t>Pre-Order Data Query Description 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT
+    <t>Pre-Order Data Query</t>
+  </si>
+  <si>
+    <t>SELECT
   account.AccountNumber,
   account.Name,
   account.Status AS AccountStatus,
@@ -88,26 +44,30 @@
   account.Id = amendment.AccountId
 WHERE 
   account.Status = 'Active'
-  AND amendment.Status = 'Completed';
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT
+  AND amendment.Status = 'Completed'</t>
+  </si>
+  <si>
+    <t>SELECT
   account.AccountNumber,
   account.Name,
   account.Status AS AccountStatus,
-  ord.Id AS OrdersId,
-  ord.OrderNumber AS OrdersOrdernumber,
-  ord.Status AS OrdersStatus
+  ord.Id AS OrderId,
+  ord.OrderNumber AS OrderOrderNumber,
+  ord.Status AS OrderStatus
 FROM 
   Account account
 JOIN Orders ord
 ON 
-  account.Id = ord.accountid
+  account.Id = ord.AccountId
 WHERE 
   account.Status = 'Active'
-  AND ord.Status = 'Completed';
-</t>
+  AND ord.Status = 'Completed'</t>
+  </si>
+  <si>
+    <t>Pre-Order Data Query 2</t>
+  </si>
+  <si>
+    <t>Pre-Order Data Query Description 2</t>
   </si>
   <si>
     <t>Pre-Order Data Query 3</t>
@@ -116,7 +76,7 @@
     <t>Pre-Order Data Query Description 3</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT
+    <t>SELECT
   a.AccountNumber,
   a.Name,
   a.Status AS AccountStatus,
@@ -131,71 +91,122 @@
   a.Id = b.AccountId
 WHERE 
   a.Status = 'Active'
-  AND b.Status = 'Completed';
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT
-  a.AccountNumber,
-  a.Name,
-  a.Status AS AccountStatus,
-  ord.Id AS OrdersId,
-  ord.OrderNumber AS OrdersOrdernumber,
-  ord.Status AS OrdersStatus
+  AND b.Status = 'Completed'</t>
+  </si>
+  <si>
+    <t>SELECT
+  a.AccountNumber,
+  a.Name,
+  a.Status AS AccountStatus,
+  ord.Id AS OrderId,
+  ord.OrderNumber AS OrderOrderNumber,
+  ord.Status AS OrderStatus
 FROM 
   Account a
 JOIN Orders ord
 ON 
-  a.Id = ord.accountid
-WHERE 
-  a.Status = 'Active'
-  AND ord.Status = 'Completed';
-</t>
-  </si>
-  <si>
-    <t>Pre-Order Data Query  4</t>
+  a.Id = ord.AccountId
+WHERE 
+  a.Status = 'Active'
+  AND ord.Status = 'Completed'</t>
+  </si>
+  <si>
+    <t>Pre-Order Data Query 4</t>
   </si>
   <si>
     <t>Pre-Order Data Query Description 4</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT
-  x.AccountNumber,
-  x.Name,
-  x.Status AS AccountStatus,
-  y.Id AS AmendmentId,
-  y.Name AS AmendmentName,
-  y.Status AS AmendmentStatus,
-  y.AutoRenew AS AmendmentAutoRenew
-FROM 
-  Account x
+    <t>SELECT
+  a.AccountNumber,
+  a.Name,
+  a.Status AS AccountStatus,
+  b.Id AS AmendmentId,
+  b.Name AS AmendmentName,
+  b.Status AS AmendmentStatus,
+  b.RenewalTerm,
+  b.SubType
+FROM 
+  Account a
 JOIN 
-  Amendment y
-ON 
-  x.Id = y.AccountId
-WHERE 
-  x.Status = 'Active'
-  AND y.Status = 'Completed';
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT
-  x.AccountNumber,
-  x.Name,
-  x.Status AS AccountStatus,
-  ord.Id AS OrdersId,
-  ord.OrderNumber AS OrdersOrdernumber,
-  ord.Status AS OrdersStatus,
-  ord.AutoRenew AS OrdersAutorenew
-FROM 
-  Account x
+  Amendment b
+ON 
+  a.Id = b.AccountId
+WHERE 
+  a.Status = 'Active'
+  AND b.Status = 'Completed'
+  AND b.RenewalTermPeriodType = 'Month'</t>
+  </si>
+  <si>
+    <t>SELECT
+  a.AccountNumber,
+  a.Name,
+  a.Status AS AccountStatus,
+  ord.Id AS OrderId,
+  ord.OrderNumber AS OrderOrderNumber,
+  ord.Status AS OrderStatus,
+  orda.RenewalTerm,
+  orda.SubType
+FROM 
+  Account a
 JOIN Orders ord
 ON 
-  x.Id = ord.accountid
-WHERE 
-  x.Status = 'Active'
-  AND ord.Status = 'Completed';
-</t>
+  a.Id = ord.AccountId
+JOIN OrderAction orda ON ord.Id = orda.OrderId
+WHERE 
+  a.Status = 'Active'
+  AND ord.Status = 'Completed'
+  AND orda.RenewalTermPeriodType = 'Month'</t>
+  </si>
+  <si>
+    <t>Pre-Order Data Query 5</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>SELECT
+  a.AccountNumber,
+  a.Name,
+  a.Status AS AccountStatus,
+  b.Id AS AmendmentId,
+  b.Name AS AmendmentName,
+  b.Status AS AmendmentStatus,
+  b.RenewalTerm As AmendmentRenewalTerm,
+  b.SubType,
+  b.ResumeDate As AmendmentResumeDate
+FROM 
+  Account a
+JOIN 
+  Amendment b
+ON 
+  a.Id = b.AccountId
+WHERE 
+  a.Status = 'Active'
+  AND b.Status = 'Completed'
+  AND b.RenewalTermPeriodType = 'Month'</t>
+  </si>
+  <si>
+    <t>SELECT
+  a.AccountNumber,
+  a.Name,
+  a.Status AS AccountStatus,
+  ord.Id AS OrderId,
+  ord.OrderNumber AS OrderOrderNumber,
+  ord.Status AS OrderStatus,
+  orda.RenewalTerm AS OrderActionRenewalTerm,
+  orda.SubType,
+  orda.ResumeDate AS OrderActionResumeDate
+FROM 
+  Account a
+JOIN Orders ord
+ON 
+  a.Id = ord.AccountId
+JOIN OrderAction orda ON ord.Id = orda.OrderId
+WHERE 
+  a.Status = 'Active'
+  AND ord.Status = 'Completed'
+  AND orda.RenewalTermPeriodType = 'Month'</t>
   </si>
 </sst>
 </file>
@@ -256,16 +267,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.3984375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.5703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="35.1640625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="36.33984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.85546875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="41.50390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -287,55 +298,69 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s" s="0">
         <v>6</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>9</v>
-      </c>
       <c r="C3" t="s" s="0">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>12</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B5" t="s" s="0">
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="B6" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="C6" t="s" s="0">
         <v>19</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
